--- a/Source_data/avia_par_dme.xlsx
+++ b/Source_data/avia_par_dme.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dimka/Desktop/HSA network design/TNDP_Russia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dimka/Desktop/HSA network design/TNDP_Russia/Source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948913C8-114B-A742-956F-55E1D3EAC984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3623121C-91BE-AF42-8FAD-88BCD5F997F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8360" yWindow="5120" windowWidth="25240" windowHeight="13940" xr2:uid="{97FBD67F-149C-9447-853F-5ADABDA92FB6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17560" windowHeight="19220" xr2:uid="{97FBD67F-149C-9447-853F-5ADABDA92FB6}"/>
   </bookViews>
   <sheets>
     <sheet name="avia_par_dme" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="28">
   <si>
     <t>xx</t>
   </si>
@@ -75,6 +75,48 @@
   </si>
   <si>
     <t>sum</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>AUH</t>
+  </si>
+  <si>
+    <t>BAH</t>
+  </si>
+  <si>
+    <t>CMN</t>
+  </si>
+  <si>
+    <t>DWC</t>
+  </si>
+  <si>
+    <t>DXB</t>
+  </si>
+  <si>
+    <t>HRG</t>
+  </si>
+  <si>
+    <t>IKU</t>
+  </si>
+  <si>
+    <t>KWI</t>
+  </si>
+  <si>
+    <t>OSS</t>
+  </si>
+  <si>
+    <t>SHJ</t>
+  </si>
+  <si>
+    <t>SSH</t>
+  </si>
+  <si>
+    <t>TJU</t>
+  </si>
+  <si>
+    <t>UTP</t>
   </si>
 </sst>
 </file>
@@ -426,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F568D457-0E90-8246-B084-2873154B810B}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -726,6 +768,482 @@
         <v>25920</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>113400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>42108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>121256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>75207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>199086</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>993976</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>92232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27">
+        <v>314908</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>313158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29">
+        <v>18644</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30">
+        <v>313296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>20184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
